--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il4ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il4ra</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il4ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>1.276646</v>
       </c>
       <c r="I2">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J2">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.23621900000001</v>
+        <v>26.93692533333333</v>
       </c>
       <c r="N2">
-        <v>129.708657</v>
+        <v>80.810776</v>
       </c>
       <c r="O2">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="P2">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="Q2">
-        <v>18.399115347158</v>
+        <v>11.46297265969956</v>
       </c>
       <c r="R2">
-        <v>165.592038124422</v>
+        <v>103.166753937296</v>
       </c>
       <c r="S2">
-        <v>0.2829730635958467</v>
+        <v>0.2266028987440925</v>
       </c>
       <c r="T2">
-        <v>0.2829730635958467</v>
+        <v>0.2266028987440925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1.276646</v>
       </c>
       <c r="I3">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J3">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>64.06218699999999</v>
       </c>
       <c r="O3">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="P3">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="Q3">
         <v>9.087192753866887</v>
@@ -635,10 +635,10 @@
         <v>81.78473478480198</v>
       </c>
       <c r="S3">
-        <v>0.1397583918862101</v>
+        <v>0.1796378898042771</v>
       </c>
       <c r="T3">
-        <v>0.1397583918862102</v>
+        <v>0.1796378898042771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +667,10 @@
         <v>1.276646</v>
       </c>
       <c r="I4">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J4">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.191864666666667</v>
+        <v>9.099134999999999</v>
       </c>
       <c r="N4">
-        <v>21.575594</v>
+        <v>27.297405</v>
       </c>
       <c r="O4">
-        <v>0.06875645480255156</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="P4">
-        <v>0.06875645480255155</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="Q4">
-        <v>3.060488419747111</v>
+        <v>3.872124767069999</v>
       </c>
       <c r="R4">
-        <v>27.544395777724</v>
+        <v>34.84912290363</v>
       </c>
       <c r="S4">
-        <v>0.04706942523566617</v>
+        <v>0.07654512686762818</v>
       </c>
       <c r="T4">
-        <v>0.04706942523566617</v>
+        <v>0.0765451268676282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>1.276646</v>
       </c>
       <c r="I5">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J5">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.81697400000001</v>
+        <v>27.002912</v>
       </c>
       <c r="N5">
-        <v>98.45092200000002</v>
+        <v>81.008736</v>
       </c>
       <c r="O5">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="P5">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="Q5">
-        <v>13.96521952973467</v>
+        <v>11.49105319771733</v>
       </c>
       <c r="R5">
-        <v>125.686975767612</v>
+        <v>103.419478779456</v>
       </c>
       <c r="S5">
-        <v>0.2147810304764449</v>
+        <v>0.2271580018139526</v>
       </c>
       <c r="T5">
-        <v>0.214781030476445</v>
+        <v>0.2271580018139526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>0.521589</v>
       </c>
       <c r="I6">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J6">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.23621900000001</v>
+        <v>26.93692533333333</v>
       </c>
       <c r="N6">
-        <v>129.708657</v>
+        <v>80.810776</v>
       </c>
       <c r="O6">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="P6">
-        <v>0.4133516515244106</v>
+        <v>0.319184224619106</v>
       </c>
       <c r="Q6">
-        <v>7.517178743997</v>
+        <v>4.683334649229334</v>
       </c>
       <c r="R6">
-        <v>67.65460869597301</v>
+        <v>42.150011843064</v>
       </c>
       <c r="S6">
-        <v>0.1156120312662195</v>
+        <v>0.09258132587501348</v>
       </c>
       <c r="T6">
-        <v>0.1156120312662195</v>
+        <v>0.09258132587501348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,10 +853,10 @@
         <v>0.521589</v>
       </c>
       <c r="I7">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J7">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.06218699999999</v>
       </c>
       <c r="O7">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="P7">
-        <v>0.2041514530268833</v>
+        <v>0.2530310992806105</v>
       </c>
       <c r="Q7">
         <v>3.712681339460333</v>
@@ -883,10 +883,10 @@
         <v>33.41413205514299</v>
       </c>
       <c r="S7">
-        <v>0.05709996339277801</v>
+        <v>0.07339320947633336</v>
       </c>
       <c r="T7">
-        <v>0.05709996339277801</v>
+        <v>0.07339320947633336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,10 +915,10 @@
         <v>0.521589</v>
       </c>
       <c r="I8">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J8">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.191864666666667</v>
+        <v>9.099134999999999</v>
       </c>
       <c r="N8">
-        <v>21.575594</v>
+        <v>27.297405</v>
       </c>
       <c r="O8">
-        <v>0.06875645480255156</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="P8">
-        <v>0.06875645480255155</v>
+        <v>0.1078185544096088</v>
       </c>
       <c r="Q8">
-        <v>1.250399166540667</v>
+        <v>1.582002908505</v>
       </c>
       <c r="R8">
-        <v>11.253592498866</v>
+        <v>14.238026176545</v>
       </c>
       <c r="S8">
-        <v>0.01923077692582429</v>
+        <v>0.03127342754198056</v>
       </c>
       <c r="T8">
-        <v>0.01923077692582429</v>
+        <v>0.03127342754198057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>0.521589</v>
       </c>
       <c r="I9">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J9">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.81697400000001</v>
+        <v>27.002912</v>
       </c>
       <c r="N9">
-        <v>98.45092200000002</v>
+        <v>81.008736</v>
       </c>
       <c r="O9">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="P9">
-        <v>0.3137404406461546</v>
+        <v>0.3199661216906747</v>
       </c>
       <c r="Q9">
-        <v>5.705657550562001</v>
+        <v>4.694807289056</v>
       </c>
       <c r="R9">
-        <v>51.35091795505801</v>
+        <v>42.253265601504</v>
       </c>
       <c r="S9">
-        <v>0.08775136013051263</v>
+        <v>0.09280811987672209</v>
       </c>
       <c r="T9">
-        <v>0.08775136013051263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.06662</v>
-      </c>
-      <c r="I10">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J10">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>43.23621900000001</v>
-      </c>
-      <c r="N10">
-        <v>129.708657</v>
-      </c>
-      <c r="O10">
-        <v>0.4133516515244106</v>
-      </c>
-      <c r="P10">
-        <v>0.4133516515244106</v>
-      </c>
-      <c r="Q10">
-        <v>0.9601323032600001</v>
-      </c>
-      <c r="R10">
-        <v>8.641190729340002</v>
-      </c>
-      <c r="S10">
-        <v>0.01476655666234438</v>
-      </c>
-      <c r="T10">
-        <v>0.01476655666234438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.06662</v>
-      </c>
-      <c r="I11">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J11">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>21.35406233333333</v>
-      </c>
-      <c r="N11">
-        <v>64.06218699999999</v>
-      </c>
-      <c r="O11">
-        <v>0.2041514530268833</v>
-      </c>
-      <c r="P11">
-        <v>0.2041514530268833</v>
-      </c>
-      <c r="Q11">
-        <v>0.4742025442155555</v>
-      </c>
-      <c r="R11">
-        <v>4.267822897939999</v>
-      </c>
-      <c r="S11">
-        <v>0.007293097747895126</v>
-      </c>
-      <c r="T11">
-        <v>0.007293097747895126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.06662</v>
-      </c>
-      <c r="I12">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J12">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>7.191864666666667</v>
-      </c>
-      <c r="N12">
-        <v>21.575594</v>
-      </c>
-      <c r="O12">
-        <v>0.06875645480255156</v>
-      </c>
-      <c r="P12">
-        <v>0.06875645480255155</v>
-      </c>
-      <c r="Q12">
-        <v>0.1597073413644444</v>
-      </c>
-      <c r="R12">
-        <v>1.43736607228</v>
-      </c>
-      <c r="S12">
-        <v>0.002456252641061093</v>
-      </c>
-      <c r="T12">
-        <v>0.002456252641061093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.06662</v>
-      </c>
-      <c r="I13">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J13">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>32.81697400000001</v>
-      </c>
-      <c r="N13">
-        <v>98.45092200000002</v>
-      </c>
-      <c r="O13">
-        <v>0.3137404406461546</v>
-      </c>
-      <c r="P13">
-        <v>0.3137404406461546</v>
-      </c>
-      <c r="Q13">
-        <v>0.7287556026266668</v>
-      </c>
-      <c r="R13">
-        <v>6.558800423640001</v>
-      </c>
-      <c r="S13">
-        <v>0.01120805003919705</v>
-      </c>
-      <c r="T13">
-        <v>0.01120805003919705</v>
+        <v>0.09280811987672209</v>
       </c>
     </row>
   </sheetData>
